--- a/biology/Botanique/Félix_Sahut/Félix_Sahut.xlsx
+++ b/biology/Botanique/Félix_Sahut/Félix_Sahut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Sahut</t>
+          <t>Félix_Sahut</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Félix Sahut, né le 28 mai 1835[1] à Montpellier (Hérault), mort dans la même ville le 6 mai 1904, est un horticulteur découvreur du phylloxéra de la vigne. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Félix Sahut, né le 28 mai 1835 à Montpellier (Hérault), mort dans la même ville le 6 mai 1904, est un horticulteur découvreur du phylloxéra de la vigne. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Sahut</t>
+          <t>Félix_Sahut</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Félix Sahut, descendant d'une très vieille famille de Montpellier, devient célèbre à 33 ans, au moment de la découverte du phylloxéra avec Jules-Emile Planchon et Gaston Bazille. Les trois hommes sont appelés comme experts dans le Vaucluse, à Saint-Martin-de-Crau, où ils découvrent le 15 juillet 1868, les milliers de pucerons responsables du désastre des vignes, c'est le phylloxéra[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Félix Sahut, descendant d'une très vieille famille de Montpellier, devient célèbre à 33 ans, au moment de la découverte du phylloxéra avec Jules-Emile Planchon et Gaston Bazille. Les trois hommes sont appelés comme experts dans le Vaucluse, à Saint-Martin-de-Crau, où ils découvrent le 15 juillet 1868, les milliers de pucerons responsables du désastre des vignes, c'est le phylloxéra.
 Un compte rendu à l'Académie des sciences immortalise la découverte.
-Toutefois, une polémique s'élèvera entre Sahut et Planchon quant à la découverte, chacun s'en attribuant la paternité[3].  
-Auparavant, en 1860, avec Jules-Émile Planchon, directeur de l'École de Pharmacie de Montpellier, Charles Martins, professeur à la Faculté de Médecine de Montpellier, Émile Doumet, député-Maire de Séte, Napoléon Doumet-Adanson, botaniste, il crée la « Société d'horticulture et de botanique du département de l'Hérault », qui deviendra en 1868 la « Société d'horticulture et d'histoire naturelle de l'Hérault » (SHHNH). Il en sera le vice-président de 1885 à 1889, puis président en 1889[3].
+Toutefois, une polémique s'élèvera entre Sahut et Planchon quant à la découverte, chacun s'en attribuant la paternité.  
+Auparavant, en 1860, avec Jules-Émile Planchon, directeur de l'École de Pharmacie de Montpellier, Charles Martins, professeur à la Faculté de Médecine de Montpellier, Émile Doumet, député-Maire de Séte, Napoléon Doumet-Adanson, botaniste, il crée la « Société d'horticulture et de botanique du département de l'Hérault », qui deviendra en 1868 la « Société d'horticulture et d'histoire naturelle de l'Hérault » (SHHNH). Il en sera le vice-président de 1885 à 1889, puis président en 1889.
 Il est mort à Montpellier en 1904, à l'âge de 67 ans. Il est inhumé au cimetière historique Saint-Lazare de Montpellier.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Sahut</t>
+          <t>Félix_Sahut</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur (1895)[4] ;
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur (1895) ;
  Officier d'Académie
  Chevalier de l'ordre du Mérite agricole
 Chevalier des Ordres d'Isabelle la Catholique, de la Couronne d'Italie, etc. ;
@@ -556,7 +572,7 @@
 Membre de la Commission ministérielle du phylloxéra depuis sa fondation, membre titulaire de la Société centrale d'agriculture de l'Hérault et des sociétés languedociennes de géographie, etc. ;
 Correspondant de l'Académie royale des géophiles de Florence, de la Société royale d'horticulture de la Toscane, de la Commission royale de pomologie belge, etc.
 Il est primé de plusieurs médailles d'or pour son ouvrage sur les vignes américaines.
-Il est membre de 72 sociétés savantes[2].
+Il est membre de 72 sociétés savantes.
 </t>
         </is>
       </c>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Sahut</t>
+          <t>Félix_Sahut</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Lac Majeur et les îles Borromée, leur climat caractérisé par leur végétation, 1883 (lire en ligne).
 Les vignes américaines, leur greffage et leur taille, 1887 (lire en ligne).
@@ -619,7 +637,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Sahut</t>
+          <t>Félix_Sahut</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,9 +655,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Montpellier, sa ville natale possède une rue à son nom[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Montpellier, sa ville natale possède une rue à son nom.
 </t>
         </is>
       </c>
